--- a/public/uploads/daftar.xlsx
+++ b/public/uploads/daftar.xlsx
@@ -374,26 +374,26 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
